--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3542.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3542.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.791715242277276</v>
+        <v>0.7042503952980042</v>
       </c>
       <c r="B1">
-        <v>2.026023728976754</v>
+        <v>0.6946749091148376</v>
       </c>
       <c r="C1">
-        <v>2.031013454862548</v>
+        <v>0.7280676960945129</v>
       </c>
       <c r="D1">
-        <v>2.417477381645526</v>
+        <v>0.9441881775856018</v>
       </c>
       <c r="E1">
-        <v>3.366482719997992</v>
+        <v>0.8855565190315247</v>
       </c>
     </row>
   </sheetData>
